--- a/Dados da lotação - SECRETARIA ADMINISTRATIVA 04-09-2025.xlsx
+++ b/Dados da lotação - SECRETARIA ADMINISTRATIVA 04-09-2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N161"/>
+  <dimension ref="A1:O161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,11 @@
           <t>PADRAO</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>STATUS_PROVIMENTO</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -552,6 +557,11 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>REQUISITADO</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -620,6 +630,11 @@
       <c r="N3" t="n">
         <v>13</v>
       </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -688,6 +703,11 @@
       <c r="N4" t="n">
         <v>13</v>
       </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -756,6 +776,11 @@
       <c r="N5" t="n">
         <v>13</v>
       </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -824,6 +849,11 @@
       <c r="N6" t="n">
         <v>13</v>
       </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -892,6 +922,11 @@
       <c r="N7" t="n">
         <v>13</v>
       </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -960,6 +995,11 @@
       <c r="N8" t="n">
         <v>13</v>
       </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1028,6 +1068,11 @@
       <c r="N9" t="n">
         <v>13</v>
       </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1096,6 +1141,11 @@
       <c r="N10" t="n">
         <v>13</v>
       </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1164,6 +1214,11 @@
       <c r="N11" t="n">
         <v>13</v>
       </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1232,6 +1287,11 @@
       <c r="N12" t="n">
         <v>13</v>
       </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1300,6 +1360,11 @@
       <c r="N13" t="n">
         <v>13</v>
       </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1367,6 +1432,11 @@
       </c>
       <c r="N14" t="n">
         <v>13</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1416,6 +1486,11 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>REQUISITADO</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1484,6 +1559,11 @@
       <c r="N16" t="n">
         <v>13</v>
       </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1551,6 +1631,11 @@
       </c>
       <c r="N17" t="n">
         <v>12</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1600,6 +1685,11 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>REQUISITADO</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1668,6 +1758,11 @@
       <c r="N19" t="n">
         <v>13</v>
       </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1736,6 +1831,11 @@
       <c r="N20" t="n">
         <v>12</v>
       </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1804,6 +1904,11 @@
       <c r="N21" t="n">
         <v>13</v>
       </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>REMOVIDO</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1872,6 +1977,11 @@
       <c r="N22" t="n">
         <v>2</v>
       </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>REMOVIDO</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1940,6 +2050,11 @@
       <c r="N23" t="n">
         <v>13</v>
       </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2008,6 +2123,11 @@
       <c r="N24" t="n">
         <v>13</v>
       </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2076,6 +2196,11 @@
       <c r="N25" t="n">
         <v>13</v>
       </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2144,6 +2269,11 @@
       <c r="N26" t="n">
         <v>13</v>
       </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2212,6 +2342,11 @@
       <c r="N27" t="n">
         <v>13</v>
       </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2280,6 +2415,11 @@
       <c r="N28" t="n">
         <v>13</v>
       </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2348,6 +2488,11 @@
       <c r="N29" t="n">
         <v>13</v>
       </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2416,6 +2561,11 @@
       <c r="N30" t="n">
         <v>13</v>
       </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2484,6 +2634,11 @@
       <c r="N31" t="n">
         <v>13</v>
       </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2552,6 +2707,11 @@
       <c r="N32" t="n">
         <v>13</v>
       </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2620,6 +2780,11 @@
       <c r="N33" t="n">
         <v>13</v>
       </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2688,6 +2853,11 @@
       <c r="N34" t="n">
         <v>13</v>
       </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2756,6 +2926,11 @@
       <c r="N35" t="n">
         <v>13</v>
       </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2824,6 +2999,11 @@
       <c r="N36" t="n">
         <v>13</v>
       </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2892,6 +3072,11 @@
       <c r="N37" t="n">
         <v>13</v>
       </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2960,6 +3145,11 @@
       <c r="N38" t="n">
         <v>13</v>
       </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>REMOVIDO</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3028,6 +3218,11 @@
       <c r="N39" t="n">
         <v>13</v>
       </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3096,6 +3291,11 @@
       <c r="N40" t="n">
         <v>12</v>
       </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3164,6 +3364,11 @@
       <c r="N41" t="n">
         <v>13</v>
       </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3232,6 +3437,11 @@
       <c r="N42" t="n">
         <v>13</v>
       </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3300,6 +3510,11 @@
       <c r="N43" t="n">
         <v>13</v>
       </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3368,6 +3583,11 @@
       <c r="N44" t="n">
         <v>13</v>
       </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3436,6 +3656,11 @@
       <c r="N45" t="n">
         <v>13</v>
       </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3504,6 +3729,11 @@
       <c r="N46" t="n">
         <v>13</v>
       </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3572,6 +3802,11 @@
       <c r="N47" t="n">
         <v>13</v>
       </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3640,6 +3875,11 @@
       <c r="N48" t="n">
         <v>13</v>
       </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3708,6 +3948,11 @@
       <c r="N49" t="n">
         <v>13</v>
       </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3776,6 +4021,11 @@
       <c r="N50" t="n">
         <v>13</v>
       </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3844,6 +4094,11 @@
       <c r="N51" t="n">
         <v>13</v>
       </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3912,6 +4167,11 @@
       <c r="N52" t="n">
         <v>13</v>
       </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3980,6 +4240,11 @@
       <c r="N53" t="n">
         <v>13</v>
       </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4048,6 +4313,11 @@
       <c r="N54" t="n">
         <v>13</v>
       </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4116,6 +4386,11 @@
       <c r="N55" t="n">
         <v>13</v>
       </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4184,6 +4459,11 @@
       <c r="N56" t="n">
         <v>13</v>
       </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4252,6 +4532,11 @@
       <c r="N57" t="n">
         <v>13</v>
       </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4320,6 +4605,11 @@
       <c r="N58" t="n">
         <v>13</v>
       </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4388,6 +4678,11 @@
       <c r="N59" t="n">
         <v>13</v>
       </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4456,6 +4751,11 @@
       <c r="N60" t="n">
         <v>13</v>
       </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4524,6 +4824,11 @@
       <c r="N61" t="n">
         <v>13</v>
       </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4592,6 +4897,11 @@
       <c r="N62" t="n">
         <v>13</v>
       </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4660,6 +4970,11 @@
       <c r="N63" t="n">
         <v>13</v>
       </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4728,6 +5043,11 @@
       <c r="N64" t="n">
         <v>13</v>
       </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4796,6 +5116,11 @@
       <c r="N65" t="n">
         <v>13</v>
       </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4864,6 +5189,11 @@
       <c r="N66" t="n">
         <v>13</v>
       </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4932,6 +5262,11 @@
       <c r="N67" t="n">
         <v>13</v>
       </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5000,6 +5335,11 @@
       <c r="N68" t="n">
         <v>13</v>
       </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>REMOVIDO</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5068,6 +5408,11 @@
       <c r="N69" t="n">
         <v>13</v>
       </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5136,6 +5481,11 @@
       <c r="N70" t="n">
         <v>13</v>
       </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>EXERCÍCIO PROVISÓRIO</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5204,6 +5554,11 @@
       <c r="N71" t="n">
         <v>13</v>
       </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5272,6 +5627,11 @@
       <c r="N72" t="n">
         <v>13</v>
       </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5340,6 +5700,11 @@
       <c r="N73" t="n">
         <v>13</v>
       </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5408,6 +5773,11 @@
       <c r="N74" t="n">
         <v>13</v>
       </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5476,6 +5846,11 @@
       <c r="N75" t="n">
         <v>13</v>
       </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5544,6 +5919,11 @@
       <c r="N76" t="n">
         <v>9</v>
       </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5611,6 +5991,11 @@
       </c>
       <c r="N77" t="n">
         <v>13</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -5660,6 +6045,11 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>REQUISITADO</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5728,6 +6118,11 @@
       <c r="N79" t="n">
         <v>13</v>
       </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5796,6 +6191,11 @@
       <c r="N80" t="n">
         <v>13</v>
       </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5864,6 +6264,11 @@
       <c r="N81" t="n">
         <v>13</v>
       </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5932,6 +6337,11 @@
       <c r="N82" t="n">
         <v>13</v>
       </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>REQUISITADO</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6000,6 +6410,11 @@
       <c r="N83" t="n">
         <v>13</v>
       </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6068,6 +6483,11 @@
       <c r="N84" t="n">
         <v>13</v>
       </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>REMOVIDO</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -6136,6 +6556,11 @@
       <c r="N85" t="n">
         <v>13</v>
       </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6204,6 +6629,11 @@
       <c r="N86" t="n">
         <v>13</v>
       </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6272,6 +6702,11 @@
       <c r="N87" t="n">
         <v>11</v>
       </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6340,6 +6775,11 @@
       <c r="N88" t="n">
         <v>13</v>
       </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6408,6 +6848,11 @@
       <c r="N89" t="n">
         <v>13</v>
       </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6476,6 +6921,11 @@
       <c r="N90" t="n">
         <v>13</v>
       </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6544,6 +6994,11 @@
       <c r="N91" t="n">
         <v>13</v>
       </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6612,6 +7067,11 @@
       <c r="N92" t="n">
         <v>13</v>
       </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6680,6 +7140,11 @@
       <c r="N93" t="n">
         <v>13</v>
       </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6748,6 +7213,11 @@
       <c r="N94" t="n">
         <v>13</v>
       </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6816,6 +7286,11 @@
       <c r="N95" t="n">
         <v>13</v>
       </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6884,6 +7359,11 @@
       <c r="N96" t="n">
         <v>13</v>
       </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6952,6 +7432,11 @@
       <c r="N97" t="n">
         <v>13</v>
       </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7020,6 +7505,11 @@
       <c r="N98" t="n">
         <v>13</v>
       </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7088,6 +7578,11 @@
       <c r="N99" t="n">
         <v>13</v>
       </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7156,6 +7651,11 @@
       <c r="N100" t="n">
         <v>13</v>
       </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7224,6 +7724,11 @@
       <c r="N101" t="n">
         <v>6</v>
       </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7292,6 +7797,11 @@
       <c r="N102" t="n">
         <v>13</v>
       </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7360,6 +7870,11 @@
       <c r="N103" t="n">
         <v>13</v>
       </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7428,6 +7943,11 @@
       <c r="N104" t="n">
         <v>13</v>
       </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7495,6 +8015,11 @@
       </c>
       <c r="N105" t="n">
         <v>13</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
       </c>
     </row>
     <row r="106">
@@ -7544,6 +8069,11 @@
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>REQUISITADO</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7612,6 +8142,11 @@
       <c r="N107" t="n">
         <v>13</v>
       </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7680,6 +8215,11 @@
       <c r="N108" t="n">
         <v>13</v>
       </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7748,6 +8288,11 @@
       <c r="N109" t="n">
         <v>13</v>
       </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -7816,6 +8361,11 @@
       <c r="N110" t="n">
         <v>13</v>
       </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -7884,6 +8434,11 @@
       <c r="N111" t="n">
         <v>13</v>
       </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -7952,6 +8507,11 @@
       <c r="N112" t="n">
         <v>13</v>
       </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -8020,6 +8580,11 @@
       <c r="N113" t="n">
         <v>13</v>
       </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -8088,6 +8653,11 @@
       <c r="N114" t="n">
         <v>13</v>
       </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -8156,6 +8726,11 @@
       <c r="N115" t="n">
         <v>13</v>
       </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>REMOVIDO</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -8224,6 +8799,11 @@
       <c r="N116" t="n">
         <v>13</v>
       </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -8292,6 +8872,11 @@
       <c r="N117" t="n">
         <v>13</v>
       </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8360,6 +8945,11 @@
       <c r="N118" t="n">
         <v>13</v>
       </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8428,6 +9018,11 @@
       <c r="N119" t="n">
         <v>13</v>
       </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8496,6 +9091,11 @@
       <c r="N120" t="n">
         <v>13</v>
       </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8564,6 +9164,11 @@
       <c r="N121" t="n">
         <v>13</v>
       </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8632,6 +9237,11 @@
       <c r="N122" t="n">
         <v>13</v>
       </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8700,6 +9310,11 @@
       <c r="N123" t="n">
         <v>13</v>
       </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -8768,6 +9383,11 @@
       <c r="N124" t="n">
         <v>12</v>
       </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -8836,6 +9456,11 @@
       <c r="N125" t="n">
         <v>1</v>
       </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>REMOVIDO</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -8904,6 +9529,11 @@
       <c r="N126" t="n">
         <v>13</v>
       </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -8972,6 +9602,11 @@
       <c r="N127" t="n">
         <v>11</v>
       </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -9040,6 +9675,11 @@
       <c r="N128" t="n">
         <v>13</v>
       </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -9108,6 +9748,11 @@
       <c r="N129" t="n">
         <v>13</v>
       </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -9176,6 +9821,11 @@
       <c r="N130" t="n">
         <v>13</v>
       </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -9244,6 +9894,11 @@
       <c r="N131" t="n">
         <v>13</v>
       </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -9312,6 +9967,11 @@
       <c r="N132" t="n">
         <v>13</v>
       </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -9380,6 +10040,11 @@
       <c r="N133" t="n">
         <v>13</v>
       </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -9448,6 +10113,11 @@
       <c r="N134" t="n">
         <v>13</v>
       </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -9516,6 +10186,11 @@
       <c r="N135" t="n">
         <v>13</v>
       </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -9584,6 +10259,11 @@
       <c r="N136" t="n">
         <v>13</v>
       </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>REMOVIDO</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -9652,6 +10332,11 @@
       <c r="N137" t="n">
         <v>13</v>
       </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -9720,6 +10405,11 @@
       <c r="N138" t="n">
         <v>13</v>
       </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -9788,6 +10478,11 @@
       <c r="N139" t="n">
         <v>13</v>
       </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -9856,6 +10551,11 @@
       <c r="N140" t="n">
         <v>10</v>
       </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -9924,6 +10624,11 @@
       <c r="N141" t="n">
         <v>13</v>
       </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -9992,6 +10697,11 @@
       <c r="N142" t="n">
         <v>13</v>
       </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -10060,6 +10770,11 @@
       <c r="N143" t="n">
         <v>13</v>
       </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -10128,6 +10843,11 @@
       <c r="N144" t="n">
         <v>13</v>
       </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -10196,6 +10916,11 @@
       <c r="N145" t="n">
         <v>13</v>
       </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -10264,6 +10989,11 @@
       <c r="N146" t="n">
         <v>13</v>
       </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -10332,6 +11062,11 @@
       <c r="N147" t="n">
         <v>13</v>
       </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -10400,6 +11135,11 @@
       <c r="N148" t="n">
         <v>13</v>
       </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -10468,6 +11208,11 @@
       <c r="N149" t="n">
         <v>13</v>
       </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -10536,6 +11281,11 @@
       <c r="N150" t="n">
         <v>1</v>
       </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>REMOVIDO</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -10604,6 +11354,11 @@
       <c r="N151" t="n">
         <v>13</v>
       </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -10671,6 +11426,11 @@
       </c>
       <c r="N152" t="n">
         <v>13</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
       </c>
     </row>
     <row r="153">
@@ -10716,6 +11476,11 @@
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="inlineStr"/>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>REQUISITADO</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -10784,6 +11549,11 @@
       <c r="N154" t="n">
         <v>13</v>
       </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -10852,6 +11622,11 @@
       <c r="N155" t="n">
         <v>13</v>
       </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -10920,6 +11695,11 @@
       <c r="N156" t="n">
         <v>12</v>
       </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -10988,6 +11768,11 @@
       <c r="N157" t="n">
         <v>12</v>
       </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -11056,6 +11841,11 @@
       <c r="N158" t="n">
         <v>13</v>
       </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -11124,6 +11914,11 @@
       <c r="N159" t="n">
         <v>4</v>
       </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>REMOVIDO</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -11192,6 +11987,11 @@
       <c r="N160" t="n">
         <v>13</v>
       </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -11259,6 +12059,11 @@
       </c>
       <c r="N161" t="n">
         <v>13</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>EFETIVO</t>
+        </is>
       </c>
     </row>
   </sheetData>
